--- a/db/datos.xlsx
+++ b/db/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Dev\Tracker\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24443587-E8CA-4243-8F15-F34D5930E61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4C73E9-FBEB-4D8C-A22A-90029D33D5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{88C6B703-249C-4A01-9B21-8823C43F5C7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{88C6B703-249C-4A01-9B21-8823C43F5C7A}"/>
   </bookViews>
   <sheets>
     <sheet name="areas" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Pensar modelos de negocio</t>
   </si>
   <si>
-    <t>&lt;iframe width="1349" height="480" src="https://www.youtube.com/embed/Nfc4l_jHqLU" title="Being An Introvert &amp;amp; Building An Art Business - My Thoughts and Tips" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
     <t>link1</t>
   </si>
   <si>
@@ -179,6 +176,51 @@
   </si>
   <si>
     <t>html</t>
+  </si>
+  <si>
+    <t>Estrategia con mi chico</t>
+  </si>
+  <si>
+    <t>#2a0080</t>
+  </si>
+  <si>
+    <t>Sesión estratégica</t>
+  </si>
+  <si>
+    <t>¡Hola corazón! Para recuperar nuestros hábitos por lo pronto recuerda ir utilizando tu aplicación. Y tratamos de volver a vernos cada 15 días. Te amoooooo!</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe style="width:100%" src="https://www.youtube.com/embed/WpvU7sABZPI" title="[𝐖𝐎𝐑𝐊&amp;amp;𝐉𝐀𝐙𝐙] 사무실에서 일하다가 몰래 리듬타기 좋은 펑키한 재즈비지엠😎💖 l Relaxing Jazz Piano Music for Office, Work, Study" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe  style="width:100%" src="https://www.youtube.com/embed/Nfc4l_jHqLU" title="Being An Introvert &amp;amp; Building An Art Business - My Thoughts and Tips" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Congregarme</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Horarios y sedes IDMJI</t>
+  </si>
+  <si>
+    <t>https://idmji.org/direcciones/</t>
+  </si>
+  <si>
+    <t>Te dejo el enlace de las sedes y horarios de la i por si los quieres tener a la mano preciosa.</t>
+  </si>
+  <si>
+    <t>Acuérdate de llenar el formulario corazón.</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -556,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F126945-AF3A-4838-B2DA-061DAF8DEE3C}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -863,17 +905,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F40869A-ED9A-40BF-A227-98A8C6814A49}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,40 +966,40 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
         <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -941,31 +1016,42 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -974,31 +1060,42 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1007,24 +1104,35 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1040,31 +1148,42 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1073,31 +1192,42 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1106,24 +1236,161 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1134,7 +1401,9 @@
     <hyperlink ref="J5" r:id="rId4" xr:uid="{A8C684E6-B632-487C-A0E6-252980D380DD}"/>
     <hyperlink ref="J6" r:id="rId5" xr:uid="{E1BCB0A0-6354-4489-98A5-160F335BBB83}"/>
     <hyperlink ref="J7" r:id="rId6" xr:uid="{F4D2DB7F-DF70-4D28-8F7F-66D6D8BC5A57}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{776CF268-369D-49E8-8E6A-F9367EB3626C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/db/datos.xlsx
+++ b/db/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Dev\Tracker\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4C73E9-FBEB-4D8C-A22A-90029D33D5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA867B-3243-4798-8E54-C2E352AB3505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{88C6B703-249C-4A01-9B21-8823C43F5C7A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -190,9 +190,6 @@
     <t>¡Hola corazón! Para recuperar nuestros hábitos por lo pronto recuerda ir utilizando tu aplicación. Y tratamos de volver a vernos cada 15 días. Te amoooooo!</t>
   </si>
   <si>
-    <t>&lt;h1&gt;&lt;/h1&gt;</t>
-  </si>
-  <si>
     <t>&lt;iframe style="width:100%" src="https://www.youtube.com/embed/WpvU7sABZPI" title="[𝐖𝐎𝐑𝐊&amp;amp;𝐉𝐀𝐙𝐙] 사무실에서 일하다가 몰래 리듬타기 좋은 펑키한 재즈비지엠😎💖 l Relaxing Jazz Piano Music for Office, Work, Study" frameborder="0" allow="accelerometer; autoplay; clipboard-write; encrypted-media; gyroscope; picture-in-picture; web-share" referrerpolicy="strict-origin-when-cross-origin" allowfullscreen&gt;&lt;/iframe&gt;</t>
   </si>
   <si>
@@ -215,12 +212,6 @@
   </si>
   <si>
     <t>Acuérdate de llenar el formulario corazón.</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1016,7 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
@@ -1033,18 +1024,6 @@
       <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1077,18 +1056,6 @@
       <c r="J3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1120,18 +1087,6 @@
       </c>
       <c r="J4" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1157,25 +1112,13 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
         <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1209,18 +1152,6 @@
       <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1253,18 +1184,6 @@
       <c r="J7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1289,19 +1208,7 @@
         <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1309,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1324,28 +1231,13 @@
         <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1353,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1368,28 +1260,7 @@
         <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
